--- a/03-lab/output/penalty_method_1_1.xlsx
+++ b/03-lab/output/penalty_method_1_1.xlsx
@@ -63,8 +63,8 @@
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="4.140625" customWidth="true"/>
-    <col min="6" max="6" width="5.140625" customWidth="true"/>
+    <col min="5" max="5" width="2.140625" customWidth="true"/>
+    <col min="6" max="6" width="3.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -72,99 +72,99 @@
         <v>0.5</v>
       </c>
       <c r="B1" s="0">
-        <v>0.41349155437964563</v>
+        <v>0.41036011658012789</v>
       </c>
       <c r="C1" s="0">
-        <v>0.41349155437964563</v>
+        <v>0.41036011658012789</v>
       </c>
       <c r="D1" s="0">
-        <v>0.41349155437964563</v>
+        <v>0.41036011658012789</v>
       </c>
       <c r="E1" s="0">
-        <v>349</v>
+        <v>3</v>
       </c>
       <c r="F1" s="0">
-        <v>1044</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.25</v>
+        <v>0.14999999999999999</v>
       </c>
       <c r="B2" s="0">
-        <v>0.41086158880664614</v>
+        <v>0.40745893220454099</v>
       </c>
       <c r="C2" s="0">
-        <v>0.41086158880664614</v>
+        <v>0.40745893220454099</v>
       </c>
       <c r="D2" s="0">
-        <v>0.41086158880664614</v>
+        <v>0.40745893220454099</v>
       </c>
       <c r="E2" s="0">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="F2" s="0">
-        <v>363</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.125</v>
+        <v>0.044999999999999998</v>
       </c>
       <c r="B3" s="0">
-        <v>0.4095528420228422</v>
+        <v>0.40856708602838504</v>
       </c>
       <c r="C3" s="0">
-        <v>0.4095528420228422</v>
+        <v>0.40856708602838504</v>
       </c>
       <c r="D3" s="0">
-        <v>0.4095528420228422</v>
+        <v>0.40856708602838504</v>
       </c>
       <c r="E3" s="0">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="F3" s="0">
-        <v>177</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0625</v>
+        <v>0.0135</v>
       </c>
       <c r="B4" s="0">
-        <v>0.40890001374943563</v>
+        <v>0.40840540856439328</v>
       </c>
       <c r="C4" s="0">
-        <v>0.40890001374943563</v>
+        <v>0.40840540856439328</v>
       </c>
       <c r="D4" s="0">
-        <v>0.40890001374943563</v>
+        <v>0.40840540856439328</v>
       </c>
       <c r="E4" s="0">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F4" s="0">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.03125</v>
+        <v>0.0040499999999999998</v>
       </c>
       <c r="B5" s="0">
-        <v>0.40857396971607202</v>
+        <v>0.40830548639643149</v>
       </c>
       <c r="C5" s="0">
-        <v>0.40857396971607202</v>
+        <v>0.40830548639643149</v>
       </c>
       <c r="D5" s="0">
-        <v>0.40857396971607202</v>
+        <v>0.40830548639643149</v>
       </c>
       <c r="E5" s="0">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F5" s="0">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/03-lab/output/penalty_method_1_1.xlsx
+++ b/03-lab/output/penalty_method_1_1.xlsx
@@ -84,7 +84,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -124,7 +124,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -144,7 +144,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -164,7 +164,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/03-lab/output/penalty_method_1_1.xlsx
+++ b/03-lab/output/penalty_method_1_1.xlsx
@@ -1,23 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <workbookPr/>
+  <fileVersion appName="Calc"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f(X_min)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B(X_min, r)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracijų skaičius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funkcijų iškvietimų skaičius</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -29,7 +79,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -38,135 +88,449 @@
     </border>
     <border/>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18A303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369A3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A33E03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8E03A3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="C99C00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="C9211E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000EE"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551A8B"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="A1:J5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="2.140625" customWidth="true"/>
-    <col min="6" max="6" width="3.140625" customWidth="true"/>
+    <col min="1" max="1" width="8.140625" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="9" max="10" width="18.02" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="8.140625" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="8.140625" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="8.140625" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" width="8.140625" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" width="8.140625" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="7" max="7" width="8.140625" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="8" max="8" width="8.140625" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0">
+      <c r="A1" s="1">
         <v>0.5</v>
       </c>
-      <c r="B1" s="0">
+      <c r="B1" s="1">
         <v>0.41036011658012789</v>
       </c>
-      <c r="C1" s="0">
+      <c r="C1" s="1">
         <v>0.41036011658012789</v>
       </c>
-      <c r="D1" s="0">
+      <c r="D1" s="1">
         <v>0.41036011658012789</v>
       </c>
-      <c r="E1" s="0">
-        <v>3</v>
-      </c>
-      <c r="F1" s="0">
+      <c r="E1" s="1">
+        <v>-0.069102766349319916</v>
+      </c>
+      <c r="F1" s="1">
+        <v>-0.06888758669269697</v>
+      </c>
+      <c r="G1" s="1">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
+      <c r="A2" s="1">
         <v>0.14999999999999999</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2" s="1">
         <v>0.40745893220454099</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2" s="1">
         <v>0.40745893220454099</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2" s="1">
         <v>0.40745893220454099</v>
       </c>
-      <c r="E2" s="0">
-        <v>2</v>
-      </c>
-      <c r="F2" s="0">
+      <c r="E2" s="1">
+        <v>-0.067647465244425942</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-0.067547964077915607</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0">
+      <c r="A3" s="1">
         <v>0.044999999999999998</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3" s="1">
         <v>0.40856708602838504</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3" s="1">
         <v>0.40856708602838504</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3" s="1">
         <v>0.40856708602838504</v>
       </c>
-      <c r="E3" s="0">
-        <v>3</v>
-      </c>
-      <c r="F3" s="0">
+      <c r="E3" s="1">
+        <v>-0.068200904030208342</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-0.068146658702516905</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0">
+      <c r="A4" s="1">
         <v>0.0135</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4" s="1">
         <v>0.40840540856439328</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4" s="1">
         <v>0.40840540856439328</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4" s="1">
         <v>0.40840540856439328</v>
       </c>
-      <c r="E4" s="0">
-        <v>3</v>
-      </c>
-      <c r="F4" s="0">
+      <c r="E4" s="1">
+        <v>-0.068119971032292254</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-0.068076067745004298</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0">
+      <c r="A5" s="1">
         <v>0.0040499999999999998</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5" s="1">
         <v>0.40830548639643149</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5" s="1">
         <v>0.40830548639643149</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5" s="1">
         <v>0.40830548639643149</v>
       </c>
-      <c r="E5" s="0">
-        <v>3</v>
-      </c>
-      <c r="F5" s="0">
+      <c r="E5" s="1">
+        <v>-0.068069983717047908</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-0.068050595076806081</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
         <v>50</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f aca="false">"⟨" &amp; B1 &amp; ", " &amp;C1 &amp; ", " &amp; D1 &amp; "⟩"</f>
+        <v>⟨, , ⟩</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>-0.0691027663493199</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>-0.068887586692697</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f aca="false">"⟨" &amp; B2 &amp; ", " &amp;C2 &amp; ", " &amp; D2 &amp; "⟩"</f>
+        <v>⟨, , ⟩</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>-0.0676474652444259</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>-0.0675479640779156</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f aca="false">"⟨" &amp; B3 &amp; ", " &amp;C3 &amp; ", " &amp; D3 &amp; "⟩"</f>
+        <v>⟨, , ⟩</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>-0.0682009040302083</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>-0.0681466587025169</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f aca="false">"⟨" &amp; B4 &amp; ", " &amp;C4 &amp; ", " &amp; D4 &amp; "⟩"</f>
+        <v>⟨, , ⟩</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>-0.0681199710322923</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>-0.0680760677450043</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f aca="false">"⟨" &amp; B5 &amp; ", " &amp;C5 &amp; ", " &amp; D5 &amp; "⟩"</f>
+        <v>⟨, , ⟩</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>-0.0680699837170479</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>-0.0680505950768061</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.74791666666667" right="0.74791666666667" top="0.98402777777778" bottom="0.98402777777778" header="0.51181102362205" footer="0.51181102362205"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/03-lab/output/penalty_method_1_1.xlsx
+++ b/03-lab/output/penalty_method_1_1.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -19,13 +19,45 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f(X_min)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B(X_min)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b(X_min)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracijų skaičius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funkcijų skaičiavimų kiekis</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00000000000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -45,6 +77,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -70,7 +107,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -97,7 +140,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -118,15 +161,46 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,44 +214,44 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18A303"/>
+        <a:srgbClr val="18a303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369A3"/>
+        <a:srgbClr val="0369a3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A33E03"/>
+        <a:srgbClr val="a33e03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8E03A3"/>
+        <a:srgbClr val="8e03a3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="C99C00"/>
+        <a:srgbClr val="c99c00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="C9211E"/>
+        <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000EE"/>
+        <a:srgbClr val="0000ee"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551A8B"/>
+        <a:srgbClr val="551a8b"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -246,384 +320,480 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="10" max="11" width="8.15" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="2" max="2" width="22.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="3" max="3" width="22.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="4" max="4" width="22.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="5" max="5" width="22.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="6" max="6" width="22.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="7" max="7" width="22.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="8" max="8" width="8.140625" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="9" max="9" width="8.140625" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="27.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="8.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2">
+      <c r="A1" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="B1" s="2">
-        <v>0.41346671376320754</v>
-      </c>
-      <c r="C1" s="2">
-        <v>0.41346671376320754</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0.41346671376320754</v>
-      </c>
-      <c r="E1" s="2">
-        <v>-0.070684087682421903</v>
-      </c>
-      <c r="F1" s="2">
-        <v>-0.069360192689029876</v>
-      </c>
-      <c r="G1" s="2">
-        <v>0.0013238949933920216</v>
-      </c>
-      <c r="H1" s="1">
+      <c r="B1" s="2" t="n">
+        <v>0.413466713763208</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>0.413466713763208</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>0.413466713763208</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>-0.0706840876824219</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>-0.0693601926890299</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>0.00132389499339202</v>
+      </c>
+      <c r="H1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2">
+      <c r="A2" s="2" t="n">
         <v>0.25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.41086185438681078</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.41086185438681078</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.41086185438681078</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-0.069356547442818467</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-0.06869659391478293</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.00065995352803554131</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="B2" s="2" t="n">
+        <v>0.410861854386811</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0.410861854386811</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.410861854386811</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>-0.0693565474428185</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>-0.0686965939147829</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0.000659953528035541</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="1" t="n">
         <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2">
+      <c r="A3" s="2" t="n">
         <v>0.125</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.40955273347770543</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.40955273347770543</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.40955273347770543</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-0.068695689461562986</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-0.068367943001170731</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.00032774646039226274</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="B3" s="2" t="n">
+        <v>0.409552733477705</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0.409552733477705</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.409552733477705</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>-0.068695689461563</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>-0.0683679430011707</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0.000327746460392263</v>
+      </c>
+      <c r="H3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="1" t="n">
         <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2">
+      <c r="A4" s="2" t="n">
         <v>0.0625</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.40889983450959966</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.40889983450959966</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.40889983450959966</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-0.068367673959440989</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-0.068204401993921471</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.0001632719655195189</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="B4" s="2" t="n">
+        <v>0.4088998345096</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.4088998345096</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.4088998345096</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>-0.068367673959441</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>-0.0682044019939215</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0.000163271965519519</v>
+      </c>
+      <c r="H4" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="1" t="n">
         <v>1326</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3">
+    <row r="5" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>0.03125</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.40857373197417257</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.40857373197417257</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.40857373197417257</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-0.068204232248995314</v>
-      </c>
-      <c r="F5" s="3">
-        <v>-0.068122826842526046</v>
-      </c>
-      <c r="G5" s="3">
-        <v>8.1405406469260862e-05</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="B5" s="3" t="n">
+        <v>0.408573731974173</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0.408573731974173</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.408573731974173</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>-0.0682042322489953</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>-0.0681228268425261</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>8.14054064692609E-005</v>
+      </c>
+      <c r="H5" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="4" t="n">
         <v>1326</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2">
+      <c r="A6" s="2" t="n">
         <v>0.015625</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.40841093176084309</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.40841093176084309</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.40841093176084309</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-0.068122734793955281</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-0.068082088039487051</v>
-      </c>
-      <c r="G6" s="2">
-        <v>4.0646754468227609e-05</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="B6" s="2" t="n">
+        <v>0.408410931760843</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.408410931760843</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.408410931760843</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>-0.0681227347939553</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>-0.0680820880394871</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>4.06467544682276E-005</v>
+      </c>
+      <c r="H6" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="1" t="n">
         <v>1326</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6">
+      <c r="A7" s="5" t="n">
         <v>0.0078125</v>
       </c>
-      <c r="B7" s="6">
-        <v>0.40832953165417835</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.40832953165417835</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.40832953165417835</v>
-      </c>
-      <c r="E7" s="6">
-        <v>-0.06808201042314764</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="B7" s="5" t="n">
+        <v>0.408329531654178</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.408329531654178</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.408329531654178</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.0680820104231476</v>
+      </c>
+      <c r="F7" s="5" t="n">
         <v>-0.0680617307856691</v>
       </c>
-      <c r="G7" s="2">
-        <v>2.0279637478546604e-05</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="G7" s="2" t="n">
+        <v>2.02796374785466E-005</v>
+      </c>
+      <c r="H7" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="1" t="n">
         <v>1326</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6">
+      <c r="A8" s="5" t="n">
         <v>0.00390625</v>
       </c>
-      <c r="B8" s="6">
-        <v>0.40828892749508766</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.40828892749508766</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.40828892749508766</v>
-      </c>
-      <c r="E8" s="6">
-        <v>-0.068061702282161463</v>
-      </c>
-      <c r="F8" s="6">
-        <v>-0.068051555265326219</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1.0147016835238285e-05</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="B8" s="5" t="n">
+        <v>0.408288927495088</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0.408288927495088</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0.408288927495088</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.0680617022821615</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.0680515552653262</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>1.01470168352383E-005</v>
+      </c>
+      <c r="H8" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="1" t="n">
         <v>1326</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6">
+      <c r="A9" s="5" t="n">
         <v>0.001953125</v>
       </c>
-      <c r="B9" s="6">
-        <v>0.40826847025539992</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.40826847025539992</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.40826847025539992</v>
-      </c>
-      <c r="E9" s="6">
-        <v>-0.068051472138499339</v>
-      </c>
-      <c r="F9" s="6">
-        <v>-0.068046467922803389</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5.004215695954691e-06</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="B9" s="5" t="n">
+        <v>0.4082684702554</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0.4082684702554</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.4082684702554</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-0.0680514721384993</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-0.0680464679228034</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>5.00421569595469E-006</v>
+      </c>
+      <c r="H9" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="1" t="n">
         <v>1326</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6">
+      <c r="A10" s="5" t="n">
         <v>0.0009765625</v>
       </c>
-      <c r="B10" s="6">
-        <v>0.40825833752979773</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.40825833752979773</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.40825833752979773</v>
-      </c>
-      <c r="E10" s="6">
-        <v>-0.068046405400575619</v>
-      </c>
-      <c r="F10" s="6">
-        <v>-0.068043924551233537</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2.4808493420834133e-06</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="B10" s="5" t="n">
+        <v>0.408258337529798</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.408258337529798</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0.408258337529798</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.0680464054005756</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.0680439245512335</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>2.48084934208341E-006</v>
+      </c>
+      <c r="H10" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="1" t="n">
         <v>1326</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="2"/>
+      <c r="A12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="A13" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B13" s="8" t="str">
+        <f aca="false"> "&lt;" &amp; TRUNC(B1, 6) &amp;  ", " &amp; TRUNC(C1, 6) &amp;  ", " &amp; TRUNC(D1, 6) &amp; "&gt;"</f>
+        <v>&lt;0.413466, 0.413466, 0.413466&gt;</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <f aca="false">TRUNC(E1, 6)</f>
+        <v>-0.070684</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <f aca="false">TRUNC(F1, 6)</f>
+        <v>-0.06936</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <f aca="false">TRUNC(G1, 6)</f>
+        <v>0.001323</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="A14" s="11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B14" s="8" t="str">
+        <f aca="false"> "&lt;" &amp; TRUNC(B2, 6) &amp;  ", " &amp; TRUNC(C2, 6) &amp;  ", " &amp; TRUNC(D2, 6) &amp; "&gt;"</f>
+        <v>&lt;0.410861, 0.410861, 0.410861&gt;</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <f aca="false">TRUNC(E2, 6)</f>
+        <v>-0.069356</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <f aca="false">TRUNC(F2, 6)</f>
+        <v>-0.068696</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <f aca="false">TRUNC(G2, 6)</f>
+        <v>0.000659</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="10" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="A15" s="12" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f aca="false"> "&lt;" &amp; TRUNC(B3, 6) &amp;  ", " &amp; TRUNC(C3, 6) &amp;  ", " &amp; TRUNC(D3, 6) &amp; "&gt;"</f>
+        <v>&lt;0.409552, 0.409552, 0.409552&gt;</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <f aca="false">TRUNC(E3, 6)</f>
+        <v>-0.068695</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <f aca="false">TRUNC(F3, 6)</f>
+        <v>-0.068367</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <f aca="false">TRUNC(G3, 6)</f>
+        <v>0.000327</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="10" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="A16" s="13" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f aca="false"> "&lt;" &amp; TRUNC(B4, 6) &amp;  ", " &amp; TRUNC(C4, 6) &amp;  ", " &amp; TRUNC(D4, 6) &amp; "&gt;"</f>
+        <v>&lt;0.408899, 0.408899, 0.408899&gt;</v>
+      </c>
+      <c r="C16" s="9" t="n">
+        <f aca="false">TRUNC(E4, 6)</f>
+        <v>-0.068367</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <f aca="false">TRUNC(F4, 6)</f>
+        <v>-0.068204</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <f aca="false">TRUNC(G4, 6)</f>
+        <v>0.000163</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>1326</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="A17" s="14" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="B17" s="8" t="str">
+        <f aca="false"> "&lt;" &amp; TRUNC(B5, 6) &amp;  ", " &amp; TRUNC(C5, 6) &amp;  ", " &amp; TRUNC(D5, 6) &amp; "&gt;"</f>
+        <v>&lt;0.408573, 0.408573, 0.408573&gt;</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <f aca="false">TRUNC(E5, 6)</f>
+        <v>-0.068204</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <f aca="false">TRUNC(F5, 6)</f>
+        <v>-0.068122</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <f aca="false">TRUNC(G5, 6)</f>
+        <v>8.1E-005</v>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="G17" s="10" t="n">
+        <v>1326</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
@@ -637,7 +807,7 @@
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -646,17 +816,23 @@
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="5"/>
+    </row>
   </sheetData>
-  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.74791666666667" right="0.74791666666667" top="0.98402777777778" bottom="0.98402777777778" header="0.51181102362205" footer="0.51181102362205"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false">
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
